--- a/evaluation/multiclass/results_COPA_2024.xlsx
+++ b/evaluation/multiclass/results_COPA_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loftuw\Documents\Github\calibrated_explanations\debug\multiclass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loftuw\Documents\Github\calibrated_explanations\evaluation\multiclass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A0D20F-B10B-4D29-B4D6-4052BA188D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80F87E8-9001-48B5-9A57-A9F0241F7841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="13272" windowWidth="19644" windowHeight="10308" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,23 @@
     <sheet name="Calibration" sheetId="4" r:id="rId3"/>
     <sheet name="results_COPA_2024" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -653,7 +666,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -673,30 +686,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -743,7 +748,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="66">
     <dxf>
       <border>
         <top style="thin">
@@ -873,7 +878,19 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -891,54 +908,7 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <border>
@@ -1105,102 +1075,6 @@
       <border>
         <left/>
         <right/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
         <bottom/>
       </border>
     </dxf>
@@ -3175,7 +3049,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:O25" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -3352,7 +3226,7 @@
     <dataField name="Average of Value" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="90">
+    <format dxfId="65">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3369,7 +3243,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCA72976-1852-44E3-90A5-E81971F83001}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Mean" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCA72976-1852-44E3-90A5-E81971F83001}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Mean" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="">
   <location ref="A3:G25" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -3518,17 +3392,17 @@
     <dataField name="Average of Value" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="37">
-    <format dxfId="89">
+    <format dxfId="64">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3541,7 +3415,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3553,7 +3427,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3565,7 +3439,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3578,19 +3452,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="58">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="57">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="56">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="54">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="19">
@@ -3617,7 +3491,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="19">
@@ -3644,34 +3518,34 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="52">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="50">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="49">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="48">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="47">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="46">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="45">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="44">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="19">
@@ -3698,17 +3572,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3721,7 +3595,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3733,7 +3607,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3745,7 +3619,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3758,26 +3632,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="36">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="34">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" offset="A2" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="33">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3790,7 +3664,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3802,7 +3676,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3814,7 +3688,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3828,6 +3702,46 @@
       </pivotArea>
     </format>
   </formats>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="4">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="19">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3841,7 +3755,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B34635A6-BD75-442B-9EB5-334C8872A5A6}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Mean" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B34635A6-BD75-442B-9EB5-334C8872A5A6}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Mean" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="">
   <location ref="A3:G25" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -3989,20 +3903,20 @@
     <dataField name="Average of Value" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="28">
-    <format dxfId="75">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -4015,7 +3929,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -4028,7 +3942,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -4041,14 +3955,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -4061,7 +3975,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -4074,7 +3988,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -4087,7 +4001,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="16">
@@ -5596,8 +5510,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74195429-C13E-4418-B7C6-ED35E08E5048}">
   <dimension ref="A3:XFA49"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G49" sqref="A30:G49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G10"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" start="4" max="20" activeRow="9" previousRow="9" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="1">
+              <x v="5"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5629,37 +5552,32 @@
     <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -5682,8 +5600,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="9">
@@ -5704,9 +5622,22 @@
       <c r="G6" s="9">
         <v>0.88364719064242203</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="H6" s="3">
+        <f>E6-D6</f>
+        <v>7.6574206352233998E-2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>625</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="9">
@@ -5727,9 +5658,22 @@
       <c r="G7" s="9">
         <v>0.96204359779648596</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="H7" s="3">
+        <f t="shared" ref="H7:H25" si="0">E7-D7</f>
+        <v>3.9978146553038996E-2</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>1728</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="9">
@@ -5750,9 +5694,22 @@
       <c r="G8" s="9">
         <v>0.63689383978533598</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8665652275085005E-2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>1473</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="9">
@@ -5773,9 +5730,22 @@
       <c r="G9" s="9">
         <v>0.93732210789175097</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>5.1067590713500977E-2</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>768</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="9">
@@ -5796,9 +5766,22 @@
       <c r="G10" s="9">
         <v>0.72076359039190896</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.24552899599075295</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>214</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="9">
@@ -5819,9 +5802,22 @@
       <c r="G11" s="9">
         <v>0.91575890723054498</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>6.014311313629106E-2</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>768</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="9">
@@ -5842,9 +5838,22 @@
       <c r="G12" s="9">
         <v>0.96243429371887701</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>5.1317453384399969E-2</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>2310</v>
+      </c>
+      <c r="K12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="9">
@@ -5865,9 +5874,22 @@
       <c r="G13" s="9">
         <v>0.91738011695906396</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17511010169982899</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>150</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="9">
@@ -5888,9 +5910,22 @@
       <c r="G14" s="9">
         <v>0.80403915132544101</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>6.8386733531951904E-2</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>1941</v>
+      </c>
+      <c r="K14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="9">
@@ -5911,9 +5946,22 @@
       <c r="G15" s="9">
         <v>0.651350126857557</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18248087167739901</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>151</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="9">
@@ -5934,9 +5982,22 @@
       <c r="G16" s="9">
         <v>0.82119850966387797</v>
       </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13511943817138705</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>403</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="9">
@@ -5957,9 +6018,22 @@
       <c r="G17" s="9">
         <v>0.83023486987352502</v>
       </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>8.2552790641785001E-2</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>5000</v>
+      </c>
+      <c r="K17">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="9">
@@ -5980,9 +6054,22 @@
       <c r="G18" s="9">
         <v>0.90172215014739099</v>
       </c>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15051513910293601</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>846</v>
+      </c>
+      <c r="K18">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="9">
@@ -6003,9 +6090,22 @@
       <c r="G19" s="9">
         <v>0.81286825759081704</v>
       </c>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1700918674468994E-2</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>440</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="9">
@@ -6026,9 +6126,22 @@
       <c r="G20" s="9">
         <v>0.49829399953439601</v>
       </c>
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4171998500823975E-2</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>178</v>
+      </c>
+      <c r="K20">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="9">
@@ -6049,9 +6162,22 @@
       <c r="G21" s="9">
         <v>0.93946313270913695</v>
       </c>
+      <c r="H21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19064277410507202</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>1599</v>
+      </c>
+      <c r="K21">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="9">
@@ -6072,9 +6198,22 @@
       <c r="G22" s="9">
         <v>0.70718409735450305</v>
       </c>
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>4.7344028949736994E-2</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>4898</v>
+      </c>
+      <c r="K22">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="9">
@@ -6095,9 +6234,22 @@
       <c r="G23" s="9">
         <v>0.72448495681401903</v>
       </c>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5534868240357E-2</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>990</v>
+      </c>
+      <c r="K23">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="9">
@@ -6117,6 +6269,19 @@
       </c>
       <c r="G24" s="9">
         <v>0.66560513580468605</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0807447433472013E-2</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>1484</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6141,7 +6306,6 @@
       <c r="G25" s="6">
         <v>0.80487831747851246</v>
       </c>
-      <c r="H25" s="2"/>
       <c r="O25" s="2"/>
       <c r="V25" s="2"/>
       <c r="AC25" s="2"/>
@@ -8483,18 +8647,18 @@
       <c r="XFA25" s="2"/>
     </row>
     <row r="28" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="F28" s="14" t="s">
+      <c r="C28" s="11"/>
+      <c r="F28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="14"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -8518,7 +8682,7 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="9">
@@ -8539,10 +8703,10 @@
       <c r="G30" s="9">
         <v>0.88364719064242203</v>
       </c>
-      <c r="M30" s="16"/>
+      <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="9">
@@ -8563,10 +8727,10 @@
       <c r="G31" s="9">
         <v>0.96204359779648596</v>
       </c>
-      <c r="M31" s="16"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:1023 1030:2045 2052:3067 3074:4096 4103:5118 5125:6140 6147:7162 7169:8191 8198:9213 9220:10235 10242:11264 11271:12286 12293:13308 13315:14330 14337:15359 15366:16381" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="9">
@@ -8587,10 +8751,10 @@
       <c r="G32" s="9">
         <v>0.63689383978533598</v>
       </c>
-      <c r="M32" s="16"/>
+      <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="9">
@@ -8611,10 +8775,10 @@
       <c r="G33" s="9">
         <v>0.93732210789175097</v>
       </c>
-      <c r="M33" s="16"/>
+      <c r="M33" s="13"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="9">
@@ -8635,10 +8799,10 @@
       <c r="G34" s="9">
         <v>0.72076359039190896</v>
       </c>
-      <c r="M34" s="16"/>
+      <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="9">
@@ -8659,10 +8823,10 @@
       <c r="G35" s="9">
         <v>0.91575890723054498</v>
       </c>
-      <c r="M35" s="16"/>
+      <c r="M35" s="13"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="9">
@@ -8683,10 +8847,10 @@
       <c r="G36" s="9">
         <v>0.96243429371887701</v>
       </c>
-      <c r="M36" s="16"/>
+      <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="9">
@@ -8707,10 +8871,10 @@
       <c r="G37" s="9">
         <v>0.91738011695906396</v>
       </c>
-      <c r="M37" s="16"/>
+      <c r="M37" s="13"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="9">
@@ -8731,10 +8895,10 @@
       <c r="G38" s="9">
         <v>0.80403915132544101</v>
       </c>
-      <c r="M38" s="16"/>
+      <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="9">
@@ -8755,10 +8919,10 @@
       <c r="G39" s="9">
         <v>0.651350126857557</v>
       </c>
-      <c r="M39" s="16"/>
+      <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="9">
@@ -8779,10 +8943,10 @@
       <c r="G40" s="9">
         <v>0.82119850966387797</v>
       </c>
-      <c r="M40" s="16"/>
+      <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="9">
@@ -8803,10 +8967,10 @@
       <c r="G41" s="9">
         <v>0.83023486987352502</v>
       </c>
-      <c r="M41" s="16"/>
+      <c r="M41" s="13"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B42" s="9">
@@ -8827,10 +8991,10 @@
       <c r="G42" s="9">
         <v>0.90172215014739099</v>
       </c>
-      <c r="M42" s="16"/>
+      <c r="M42" s="13"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="9">
@@ -8851,10 +9015,10 @@
       <c r="G43" s="9">
         <v>0.81286825759081704</v>
       </c>
-      <c r="M43" s="16"/>
+      <c r="M43" s="13"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="9">
@@ -8875,10 +9039,10 @@
       <c r="G44" s="9">
         <v>0.49829399953439601</v>
       </c>
-      <c r="M44" s="16"/>
+      <c r="M44" s="13"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B45" s="9">
@@ -8899,10 +9063,10 @@
       <c r="G45" s="9">
         <v>0.93946313270913695</v>
       </c>
-      <c r="M45" s="16"/>
+      <c r="M45" s="13"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="9">
@@ -8923,10 +9087,10 @@
       <c r="G46" s="9">
         <v>0.70718409735450305</v>
       </c>
-      <c r="M46" s="16"/>
+      <c r="M46" s="13"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="9">
@@ -8947,10 +9111,10 @@
       <c r="G47" s="9">
         <v>0.72448495681401903</v>
       </c>
-      <c r="M47" s="16"/>
+      <c r="M47" s="13"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B48" s="9">
@@ -8971,7 +9135,7 @@
       <c r="G48" s="9">
         <v>0.66560513580468605</v>
       </c>
-      <c r="M48" s="16"/>
+      <c r="M48" s="13"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
@@ -8995,19 +9159,67 @@
       <c r="G49" s="6">
         <v>0.80487831747851246</v>
       </c>
-      <c r="M49" s="17"/>
+      <c r="M49" s="14"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H6:H24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:J24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C6:C24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9629C421-8FD7-48DE-B36E-7BD8C688B63E}">
-  <dimension ref="A2:J27"/>
+  <dimension ref="A3:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="A6:G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9041,66 +9253,51 @@
     <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="B5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="4"/>
@@ -9108,7 +9305,7 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="9">
@@ -9134,7 +9331,7 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="9">
@@ -9160,7 +9357,7 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="9">
@@ -9186,7 +9383,7 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="9">
@@ -9212,7 +9409,7 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="9">
@@ -9238,7 +9435,7 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="9">
@@ -9264,7 +9461,7 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="9">
@@ -9290,7 +9487,7 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="9">
@@ -9316,7 +9513,7 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="9">
@@ -9342,7 +9539,7 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="9">
@@ -9368,7 +9565,7 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="9">
@@ -9394,7 +9591,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="9">
@@ -9420,7 +9617,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="9">
@@ -9446,7 +9643,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="9">
@@ -9472,7 +9669,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="9">
@@ -9498,7 +9695,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="9">
@@ -9524,7 +9721,7 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="9">
@@ -9550,7 +9747,7 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="9">
@@ -9576,7 +9773,7 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="9">
@@ -9628,13 +9825,13 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
